--- a/USA/state/data/dic/1980_2016/DIC comparison pw and nonpw all ages 1980-2016.xlsx
+++ b/USA/state/data/dic/1980_2016/DIC comparison pw and nonpw all ages 1980-2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmiparks/git/mortality/USA/state/data/dic/1980_2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F61751-AA5E-024E-A2AC-A545060B8F2D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A6FEA2-6F52-3F4C-B3B8-0441AE31895D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C5D6F9F6-4735-9542-B608-875F16A3F9AD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="10">
   <si>
     <t>Cause</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Cardiorespiratory</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -414,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C297E7-6797-2342-9E80-1C39CEF8FE4F}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -876,6 +882,16 @@
       <c r="C22">
         <v>0</v>
       </c>
+      <c r="D22">
+        <v>63945.599999999999</v>
+      </c>
+      <c r="E22">
+        <v>63966.17</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>non-pw</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -887,6 +903,16 @@
       <c r="C23">
         <v>5</v>
       </c>
+      <c r="D23">
+        <v>42130.61</v>
+      </c>
+      <c r="E23">
+        <v>42182.61</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>non-pw</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -898,6 +924,16 @@
       <c r="C24">
         <v>15</v>
       </c>
+      <c r="D24">
+        <v>62718.47</v>
+      </c>
+      <c r="E24">
+        <v>62747.09</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>non-pw</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -909,6 +945,16 @@
       <c r="C25">
         <v>25</v>
       </c>
+      <c r="D25">
+        <v>80828.84</v>
+      </c>
+      <c r="E25">
+        <v>80837.02</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>non-pw</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -920,6 +966,16 @@
       <c r="C26">
         <v>35</v>
       </c>
+      <c r="D26">
+        <v>92495.22</v>
+      </c>
+      <c r="E26">
+        <v>97194.71</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>non-pw</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1036,6 +1092,16 @@
       <c r="C32">
         <v>0</v>
       </c>
+      <c r="D32">
+        <v>58907.43</v>
+      </c>
+      <c r="E32">
+        <v>58938.53</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>non-pw</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -1047,6 +1113,16 @@
       <c r="C33">
         <v>5</v>
       </c>
+      <c r="D33">
+        <v>39179.06</v>
+      </c>
+      <c r="E33">
+        <v>39243.29</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>non-pw</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -1058,6 +1134,16 @@
       <c r="C34">
         <v>15</v>
       </c>
+      <c r="D34">
+        <v>54606.62</v>
+      </c>
+      <c r="E34">
+        <v>54649.68</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>non-pw</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -1069,6 +1155,16 @@
       <c r="C35">
         <v>25</v>
       </c>
+      <c r="D35">
+        <v>72384.149999999994</v>
+      </c>
+      <c r="E35">
+        <v>72406.03</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>non-pw</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -1080,6 +1176,16 @@
       <c r="C36">
         <v>35</v>
       </c>
+      <c r="D36">
+        <v>87411.34</v>
+      </c>
+      <c r="E36">
+        <v>87417.69</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>non-pw</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -1091,6 +1197,16 @@
       <c r="C37">
         <v>45</v>
       </c>
+      <c r="D37">
+        <v>100974.23</v>
+      </c>
+      <c r="E37">
+        <v>100980</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>non-pw</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -1174,6 +1290,446 @@
       <c r="F41" t="str">
         <f t="shared" si="0"/>
         <v>non-pw</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
